--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,10 +492,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1324.63894556564</v>
+        <v>1015.673170950272</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>14916.68741388572</v>
+        <v>13698.0219617424</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6165.91999975397</v>
+        <v>5926.478313032048</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +595,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6750.943649552039</v>
+        <v>4901.1066674392</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49139.4511299474</v>
+        <v>43136.42364101945</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18823.33856294501</v>
+        <v>18932.68066900283</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +698,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>9557.26600352479</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>103370.4171414245</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30027.67847986773</v>
       </c>
     </row>
   </sheetData>
@@ -801,10 +801,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>9557.26600352479</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>103370.4171414245</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30027.67847986773</v>
       </c>
     </row>
   </sheetData>
@@ -904,10 +904,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>9557.26600352479</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>103370.4171414245</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30027.67847986773</v>
       </c>
     </row>
   </sheetData>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10427.83342855401</v>
+        <v>9557.26600352479</v>
       </c>
       <c r="B2" t="n">
-        <v>496.33841664</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98824.11718981911</v>
+        <v>103370.4171414245</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661735</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30551.82248422417</v>
+        <v>30027.67847986773</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1015.673170950272</v>
+        <v>1080.788582146178</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13698.0219617424</v>
+        <v>13604.48023863496</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5926.478313032048</v>
+        <v>5824.34743354048</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4901.1066674392</v>
+        <v>5333.608808339683</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43136.42364101945</v>
+        <v>42364.73122917186</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18932.68066900283</v>
+        <v>18843.88204782494</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>28646.04325104437</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +801,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>28646.04325104437</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>28646.04325104437</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>10759.14992734047</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>102392.9378441419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661812</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>28646.04325104437</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1015.673170950272</v>
+        <v>1015.673170950275</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5926.478313032048</v>
+        <v>5926.478313032049</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4901.1066674392</v>
+        <v>4901.106667439203</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18932.68066900283</v>
+        <v>18932.68066900282</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>9557.266003524812</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>9557.266003524812</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>9557.266003524812</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.26600352479</v>
+        <v>9557.266003524812</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>

--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -504,13 +504,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13604.48023863496</v>
+        <v>13604.48023863495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5824.34743354048</v>
+        <v>5824.34743354047</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5333.608808339683</v>
+        <v>5333.608808339523</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42364.73122917186</v>
+        <v>42364.73122917196</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18843.88204782494</v>
+        <v>18843.88204782509</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +698,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104437</v>
+        <v>28646.04325104414</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +801,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104437</v>
+        <v>28646.04325104414</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -916,13 +916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104437</v>
+        <v>28646.04325104414</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734047</v>
+        <v>10759.14992734067</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441419</v>
+        <v>102392.9378441416</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661812</v>
+        <v>8095.925712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104437</v>
+        <v>28646.04325104414</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1015.673170950275</v>
+        <v>995.9980025003983</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13698.0219617424</v>
+        <v>13731.01450534205</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -516,10 +546,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>17355.61020009905</v>
       </c>
       <c r="J2" t="n">
-        <v>5926.478313032049</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23938.92343636201</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6016.187198274</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5996.82274620429</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3619.285928183026</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4901.106667439203</v>
+        <v>4755.80114944359</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43136.42364101945</v>
+        <v>43446.67704323835</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -619,10 +697,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28074.076496535</v>
       </c>
       <c r="J2" t="n">
-        <v>18932.68066900282</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>107409.7434523519</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25020.8169621377</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19173.5863948712</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9957.032924734802</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.266003524812</v>
+        <v>10175.77622423405</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>103217.9880216565</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -722,10 +848,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>78545.70824207977</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>185889.7446926761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>64495.12833219825</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29110.70829236273</v>
+      </c>
+      <c r="P2" t="n">
+        <v>27321.26446460107</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,18 +934,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.266003524812</v>
+        <v>10175.77622423405</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -813,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>103217.9880216565</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -825,10 +999,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>78545.70824207977</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>185889.7446926761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>64495.12833219825</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29110.70829236273</v>
+      </c>
+      <c r="P2" t="n">
+        <v>27321.26446460107</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,18 +1085,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.266003524812</v>
+        <v>10175.77622423405</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -916,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>103217.9880216565</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -928,10 +1150,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>78545.70824207977</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>185889.7446926761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>64495.12833219825</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29110.70829236273</v>
+      </c>
+      <c r="P2" t="n">
+        <v>27321.26446460107</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,18 +1236,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9557.266003524812</v>
+        <v>10175.77622423405</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103370.4171414245</v>
+        <v>103217.9880216565</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1031,10 +1301,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>78545.70824207977</v>
       </c>
       <c r="J2" t="n">
-        <v>30027.67847986773</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>185889.7446926761</v>
+      </c>
+      <c r="M2" t="n">
+        <v>64495.12833219825</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29110.70829236273</v>
+      </c>
+      <c r="P2" t="n">
+        <v>27321.26446460107</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1080.788582146178</v>
+        <v>1058.45234</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -504,22 +534,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13604.48023863495</v>
+        <v>13636.01420617428</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>18517.2621913662</v>
       </c>
       <c r="J2" t="n">
-        <v>5824.34743354047</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>21421.44583563834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6108.344375382986</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5920.859623572489</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3619.307828504465</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,18 +632,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5333.608808339523</v>
+        <v>5140.22909482059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -607,22 +685,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>42364.73122917196</v>
+        <v>42951.10139201277</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>30858.00353605898</v>
       </c>
       <c r="J2" t="n">
-        <v>18843.88204782509</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>101612.8618709482</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25011.57034987365</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18916.24459279185</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9677.956285931283</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,18 +783,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -710,22 +836,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104414</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28976.79853447611</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26993.31712328851</v>
       </c>
     </row>
   </sheetData>
@@ -739,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -790,18 +934,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -813,22 +987,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104414</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28976.79853447611</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26993.31712328851</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +1034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,18 +1085,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -916,22 +1138,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104414</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28976.79853447611</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26993.31712328851</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,18 +1236,48 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>ac</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ab_ct</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ab_hp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>cp_ct</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>cp_hp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>ates</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ites</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10759.14992734067</v>
+        <v>10696.68930995204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,22 +1289,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102392.9378441416</v>
+        <v>102377.1161749718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8095.925712661834</v>
+        <v>8095.925712661819</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85431.43232025557</v>
       </c>
       <c r="J2" t="n">
-        <v>28646.04325104414</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>172557.2259013701</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63423.72648871163</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>28976.79853447611</v>
+      </c>
+      <c r="P2" t="n">
+        <v>26993.31712328851</v>
       </c>
     </row>
   </sheetData>

--- a/results/[1_high_electricity_price]_#_fix_cost.xlsx
+++ b/results/[1_high_electricity_price]_#_fix_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,15 +506,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -546,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17355.61020009905</v>
+        <v>17355.61020009904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -561,13 +556,10 @@
         <v>6016.187198274</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5996.82274620429</v>
       </c>
       <c r="O2" t="n">
-        <v>5996.82274620429</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3619.285928183026</v>
+        <v>3619.285928183022</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,15 +649,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -673,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4755.80114944359</v>
+        <v>4755.8011494436</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -697,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28074.076496535</v>
+        <v>28074.07649653499</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,12 +699,9 @@
         <v>25020.8169621377</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19173.58639487118</v>
       </c>
       <c r="O2" t="n">
-        <v>19173.5863948712</v>
-      </c>
-      <c r="P2" t="n">
         <v>9957.032924734802</v>
       </c>
     </row>
@@ -732,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,15 +792,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -824,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10175.77622423405</v>
+        <v>10175.77622423414</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -836,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103217.9880216565</v>
+        <v>103217.9880216568</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -848,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78545.70824207977</v>
+        <v>78545.70824207974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -863,13 +842,10 @@
         <v>64495.12833219825</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>29110.70829236244</v>
       </c>
       <c r="O2" t="n">
-        <v>29110.70829236273</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27321.26446460107</v>
+        <v>27321.26446460112</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,15 +935,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -975,7 +946,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10175.77622423405</v>
+        <v>10175.77622423414</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -987,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103217.9880216565</v>
+        <v>103217.9880216568</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -999,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78545.70824207977</v>
+        <v>78545.70824207974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1014,13 +985,10 @@
         <v>64495.12833219825</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>29110.70829236244</v>
       </c>
       <c r="O2" t="n">
-        <v>29110.70829236273</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27321.26446460107</v>
+        <v>27321.26446460112</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,15 +1078,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1126,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10175.77622423405</v>
+        <v>10175.77622423414</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1138,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103217.9880216565</v>
+        <v>103217.9880216568</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1150,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78545.70824207977</v>
+        <v>78545.70824207974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1165,13 +1128,10 @@
         <v>64495.12833219825</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>29110.70829236244</v>
       </c>
       <c r="O2" t="n">
-        <v>29110.70829236273</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27321.26446460107</v>
+        <v>27321.26446460112</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,15 +1221,10 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ates</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1277,7 +1232,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10175.77622423405</v>
+        <v>10175.77622423414</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1289,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103217.9880216565</v>
+        <v>103217.9880216568</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1301,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>78545.70824207977</v>
+        <v>78545.70824207974</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1316,13 +1271,10 @@
         <v>64495.12833219825</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>29110.70829236244</v>
       </c>
       <c r="O2" t="n">
-        <v>29110.70829236273</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27321.26446460107</v>
+        <v>27321.26446460112</v>
       </c>
     </row>
   </sheetData>
